--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19044" windowHeight="6900"/>
+    <workbookView windowWidth="22931" windowHeight="11471"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>会议日期</t>
   </si>
@@ -52,10 +52,10 @@
     <t>2018/10/5（四）</t>
   </si>
   <si>
-    <t>2018/10/16（五）</t>
-  </si>
-  <si>
-    <t>2018/10/10（六）</t>
+    <t>2018/10/10（五）</t>
+  </si>
+  <si>
+    <t>2018/10/11（六）</t>
   </si>
   <si>
     <t>2018/10/17（七）</t>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>提取码：olpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1NwKBTANMF4hcQunCSnNx1A </t>
+  </si>
+  <si>
+    <t>2018/10/25（九）</t>
+  </si>
+  <si>
+    <t>提取码：k2g7</t>
   </si>
 </sst>
 </file>
@@ -75,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +99,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -104,22 +106,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,17 +137,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,7 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,70 +190,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +251,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,13 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,157 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,16 +445,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -468,27 +470,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,17 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,149 +531,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,10 +1012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1131,6 +1133,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22931" windowHeight="11471"/>
+    <workbookView windowWidth="15264" windowHeight="6744"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>会议日期</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>提取码：k2g7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1QtqgCS9myG-F4ULmVBppJA </t>
+  </si>
+  <si>
+    <t>2018/11/1（十）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：ejzg </t>
   </si>
 </sst>
 </file>
@@ -84,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,6 +107,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -105,16 +136,108 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,120 +250,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,13 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,169 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +451,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,11 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,30 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,19 +537,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,131 +569,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,10 +1021,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1149,6 +1158,24 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15264" windowHeight="6744"/>
+    <workbookView windowWidth="22931" windowHeight="11471"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>会议日期</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t xml:space="preserve">提取码：ejzg </t>
+  </si>
+  <si>
+    <t>2018/11/8（十一）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/10dUK0OVFjWynDlG4dT4tGw </t>
+  </si>
+  <si>
+    <t>2018/11/14（十二）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：ce4k </t>
   </si>
 </sst>
 </file>
@@ -93,15 +105,82 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -115,8 +194,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,6 +224,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -137,44 +249,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -182,72 +256,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,26 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,32 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,8 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,8 +517,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,131 +581,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1176,6 +1188,28 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>会议日期</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t xml:space="preserve">提取码：ce4k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1TzTLvXLfpDFciFOpenkwcg </t>
+  </si>
+  <si>
+    <t>2018/11/14（十三）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：j2nq </t>
   </si>
 </sst>
 </file>
@@ -106,9 +115,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,22 +129,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +181,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -202,6 +219,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -211,30 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,22 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +475,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,11 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +530,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,28 +558,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,143 +578,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,10 +1042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1210,6 +1219,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1TzTLvXLfpDFciFOpenkwcg </t>
   </si>
   <si>
-    <t>2018/11/14（十三）</t>
+    <t>2018/11/21（十三）</t>
   </si>
   <si>
     <t xml:space="preserve">提取码：j2nq </t>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,6 +129,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -136,15 +143,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,44 +257,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -211,62 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +281,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,169 +431,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,17 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,17 +517,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +553,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,131 +590,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22931" windowHeight="11471"/>
+    <workbookView windowWidth="15264" windowHeight="6744"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>会议日期</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t xml:space="preserve">提取码：j2nq </t>
+  </si>
+  <si>
+    <t>2018/11/29（十四）</t>
+  </si>
+  <si>
+    <t>2018/12/05（十五）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1G37_STJZ2L5KIXOdjK3qbQ </t>
+  </si>
+  <si>
+    <t>2018/12/06（十六）</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：64x0 </t>
   </si>
 </sst>
 </file>
@@ -114,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,6 +147,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -142,6 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -150,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +213,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -172,14 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -189,53 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,24 +258,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,37 +299,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,19 +413,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,121 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,15 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,6 +504,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,9 +543,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,27 +590,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,131 +608,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1235,6 +1253,36 @@
         <v>30</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15264" windowHeight="6744"/>
+    <workbookView windowWidth="22931" windowHeight="11471"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>会议日期</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>2018/11/29（十四）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1YiT9cZhAdyQCLaCjLMM0lg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：rp00 </t>
   </si>
   <si>
     <t>2018/12/05（十五）</t>
@@ -133,9 +139,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,9 +153,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,113 +259,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,12 +305,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,169 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,17 +499,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +528,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -543,26 +575,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,25 +596,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,131 +614,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1253,21 +1259,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
         <v>33</v>
       </c>
@@ -1277,10 +1280,21 @@
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22931" windowHeight="11471"/>
+    <workbookView windowWidth="22356" windowHeight="11471"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>会议日期</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t xml:space="preserve">提取码：64x0 </t>
+  </si>
+  <si>
+    <t>2018/12/10（十七）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1GJ2Aiwq13324HGlaqwj7Yw </t>
+  </si>
+  <si>
+    <t>2018/12/13（十八）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：rygb </t>
   </si>
 </sst>
 </file>
@@ -139,9 +151,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,6 +165,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -167,6 +209,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -183,114 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,50 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,17 +526,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,16 +560,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,131 +626,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -1297,6 +1309,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="11471"/>
+    <workbookView windowWidth="20916" windowHeight="12011"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>会议日期</t>
   </si>
@@ -28,6 +28,12 @@
     <t>视频链接</t>
   </si>
   <si>
+    <t>G04项目组-yangc确认项目-9-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1K9n88ON6JzLqPxFQgG4tIg </t>
+  </si>
+  <si>
     <t>2018/9/20（一）</t>
   </si>
   <si>
@@ -37,40 +43,73 @@
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1j4q4diVq6ywMim0WvQ9fDw </t>
   </si>
   <si>
+    <t>G04项目组-yangc愿景-11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：a4ra </t>
+  </si>
+  <si>
     <t>项目访谈</t>
   </si>
   <si>
     <t>提取码：c7v8</t>
   </si>
   <si>
+    <t>G04项目组-杨枨业务需求确认-12-6</t>
+  </si>
+  <si>
     <t>2018/9/27（二）</t>
   </si>
   <si>
+    <t>G04项目组-杨枨上课例子-12-12</t>
+  </si>
+  <si>
     <t>2018/9/29（三）</t>
   </si>
   <si>
+    <t>G04项目组-管理员1-12-16</t>
+  </si>
+  <si>
     <t>2018/10/5（四）</t>
   </si>
   <si>
+    <t>G04项目组-管理员2-12-16</t>
+  </si>
+  <si>
     <t>2018/10/10（五）</t>
   </si>
   <si>
+    <t>G04项目组-管理员3-12-16</t>
+  </si>
+  <si>
     <t>2018/10/11（六）</t>
   </si>
   <si>
+    <t>G04项目组-管理员4-12-16</t>
+  </si>
+  <si>
     <t>2018/10/17（七）</t>
   </si>
   <si>
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1TrnF0qBrjiXqj2KCawznsQ </t>
   </si>
   <si>
+    <t>G04项目组-杨枨教师确认-12-17</t>
+  </si>
+  <si>
     <t>2018/10/18（八）</t>
   </si>
   <si>
     <t>提取码：olpe</t>
   </si>
   <si>
+    <t>G04项目组-杨枨确认风格-12-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1NwKBTANMF4hcQunCSnNx1A </t>
+  </si>
+  <si>
+    <t>G04项目组-管理员确认-12-20</t>
   </si>
   <si>
     <t>2018/10/25（九）</t>
@@ -150,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -165,9 +204,116 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,14 +325,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -195,114 +334,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +356,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +547,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,56 +570,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,8 +592,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,8 +616,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,131 +665,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,20 +1117,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="24.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="20.8796296296296" customWidth="1"/>
     <col min="4" max="4" width="19.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,231 +1143,282 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>43369</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20916" windowHeight="12011"/>
+    <workbookView windowWidth="28230" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>会议日期</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t xml:space="preserve">提取码：rygb </t>
+  </si>
+  <si>
+    <t>2018/12/13（十九）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接: https://pan.baidu.com/s/12csjqp8GmJedZeH6M-GVkA </t>
+  </si>
+  <si>
+    <t>2018/12/13（二十）</t>
+  </si>
+  <si>
+    <t>提取码：qm7k</t>
   </si>
 </sst>
 </file>
@@ -191,8 +203,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -203,6 +215,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -211,7 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,98 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -325,23 +283,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,18 +368,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,163 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,15 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,6 +573,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +625,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -608,30 +644,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -653,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,131 +677,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,17 +1129,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="20.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="19.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="24.225" customWidth="1"/>
+    <col min="3" max="3" width="20.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1419,6 +1431,28 @@
       </c>
       <c r="C26" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28230" windowHeight="14100"/>
+    <workbookView windowWidth="28785" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1G37_STJZ2L5KIXOdjK3qbQ </t>
   </si>
   <si>
-    <t>2018/12/06（十六）</t>
+    <t>2018/12/07（十六）</t>
   </si>
   <si>
     <t>紧急</t>
@@ -184,13 +184,13 @@
     <t xml:space="preserve">提取码：rygb </t>
   </si>
   <si>
-    <t>2018/12/13（十九）</t>
+    <t>2018/12/20（十九）</t>
   </si>
   <si>
     <t xml:space="preserve">链接: https://pan.baidu.com/s/12csjqp8GmJedZeH6M-GVkA </t>
   </si>
   <si>
-    <t>2018/12/13（二十）</t>
+    <t>2018/12/24（二十）</t>
   </si>
   <si>
     <t>提取码：qm7k</t>
@@ -201,9 +201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -215,6 +215,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -224,15 +329,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,119 +358,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,45 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,17 +580,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,11 +629,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,143 +665,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13065"/>
+    <workbookView windowWidth="21585" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>会议日期</t>
   </si>
@@ -121,12 +121,21 @@
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1QtqgCS9myG-F4ULmVBppJA </t>
   </si>
   <si>
+    <t>G04项目组-jad会议-1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1qIZQtB63cEy4r7AF-4yBMQ </t>
+  </si>
+  <si>
     <t>2018/11/1（十）</t>
   </si>
   <si>
     <t xml:space="preserve">提取码：ejzg </t>
   </si>
   <si>
+    <t xml:space="preserve">提取码：6z8q </t>
+  </si>
+  <si>
     <t>2018/11/8（十一）</t>
   </si>
   <si>
@@ -194,6 +203,21 @@
   </si>
   <si>
     <t>提取码：qm7k</t>
+  </si>
+  <si>
+    <t>2019/1/2（二十一）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1FuHF1u2RZ5b8vs7xkGTAMQ </t>
+  </si>
+  <si>
+    <t>JAD会议准备</t>
+  </si>
+  <si>
+    <t>2019/1/2（二十二）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：m5p5 </t>
   </si>
 </sst>
 </file>
@@ -201,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -212,28 +236,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,55 +254,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,6 +287,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -352,10 +347,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -368,13 +392,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,163 +524,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,17 +586,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,7 +614,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,17 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,32 +663,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,131 +701,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,15 +1153,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.225" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="3" width="20.8833333333333" customWidth="1"/>
     <col min="4" max="4" width="19.6333333333333" customWidth="1"/>
   </cols>
@@ -1281,7 +1305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1294,16 +1318,16 @@
       <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
+    </row>
+    <row r="11" spans="3:12">
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="H11" t="s">
         <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1317,142 +1341,176 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21585" windowHeight="10365"/>
+    <workbookView windowWidth="28785" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>会议日期</t>
   </si>
@@ -46,79 +46,157 @@
     <t>G04项目组-yangc愿景-11-13</t>
   </si>
   <si>
+    <t>项目访谈</t>
+  </si>
+  <si>
+    <t>提取码：c7v8</t>
+  </si>
+  <si>
+    <t>G04项目组-杨枨业务需求确认-12-6</t>
+  </si>
+  <si>
+    <t>2018/9/27（二）</t>
+  </si>
+  <si>
+    <t>G04项目组-杨枨上课例子-12-12</t>
+  </si>
+  <si>
     <t xml:space="preserve">提取码：a4ra </t>
   </si>
   <si>
-    <t>项目访谈</t>
-  </si>
-  <si>
-    <t>提取码：c7v8</t>
-  </si>
-  <si>
-    <t>G04项目组-杨枨业务需求确认-12-6</t>
-  </si>
-  <si>
-    <t>2018/9/27（二）</t>
-  </si>
-  <si>
-    <t>G04项目组-杨枨上课例子-12-12</t>
-  </si>
-  <si>
     <t>2018/9/29（三）</t>
   </si>
   <si>
+    <t>2018/10/5（四）</t>
+  </si>
+  <si>
+    <t>G04项目组-学生用例确认-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/11UjyEN5zFfUxtW_7a-TRDQ </t>
+  </si>
+  <si>
+    <t>2018/10/10（五）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：rzy7 </t>
+  </si>
+  <si>
+    <t>2018/10/11（六）</t>
+  </si>
+  <si>
+    <t>2018/10/17（七）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1TrnF0qBrjiXqj2KCawznsQ </t>
+  </si>
+  <si>
     <t>G04项目组-管理员1-12-16</t>
   </si>
   <si>
-    <t>2018/10/5（四）</t>
+    <t>2018/10/18（八）</t>
+  </si>
+  <si>
+    <t>提取码：olpe</t>
   </si>
   <si>
     <t>G04项目组-管理员2-12-16</t>
   </si>
   <si>
-    <t>2018/10/10（五）</t>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1NwKBTANMF4hcQunCSnNx1A </t>
   </si>
   <si>
     <t>G04项目组-管理员3-12-16</t>
   </si>
   <si>
-    <t>2018/10/11（六）</t>
+    <t>2018/10/25（九）</t>
+  </si>
+  <si>
+    <t>提取码：k2g7</t>
   </si>
   <si>
     <t>G04项目组-管理员4-12-16</t>
   </si>
   <si>
-    <t>2018/10/17（七）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/1TrnF0qBrjiXqj2KCawznsQ </t>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1QtqgCS9myG-F4ULmVBppJA </t>
+  </si>
+  <si>
+    <t>2018/11/1（十）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：ejzg </t>
   </si>
   <si>
     <t>G04项目组-杨枨教师确认-12-17</t>
   </si>
   <si>
-    <t>2018/10/18（八）</t>
-  </si>
-  <si>
-    <t>提取码：olpe</t>
+    <t>2018/11/8（十一）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/10dUK0OVFjWynDlG4dT4tGw </t>
   </si>
   <si>
     <t>G04项目组-杨枨确认风格-12-19</t>
   </si>
   <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/1NwKBTANMF4hcQunCSnNx1A </t>
+    <t>2018/11/14（十二）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：ce4k </t>
   </si>
   <si>
     <t>G04项目组-管理员确认-12-20</t>
   </si>
   <si>
-    <t>2018/10/25（九）</t>
-  </si>
-  <si>
-    <t>提取码：k2g7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/1QtqgCS9myG-F4ULmVBppJA </t>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1TzTLvXLfpDFciFOpenkwcg </t>
+  </si>
+  <si>
+    <t>2018/11/21（十三）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：j2nq </t>
+  </si>
+  <si>
+    <t>G04项目组-指导者第四次确认&amp;案例拥有者-12-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1mUuT9c5M8dXHZxZKKjE4jQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：ygvy </t>
+  </si>
+  <si>
+    <t>2018/11/29（十四）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1YiT9cZhAdyQCLaCjLMM0lg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：rp00 </t>
+  </si>
+  <si>
+    <t>G04项目组-管理员最终确认-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1ztFh1DoMHQsfsqmwSedd0g </t>
+  </si>
+  <si>
+    <t>2018/12/05（十五）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1G37_STJZ2L5KIXOdjK3qbQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：zn42 </t>
+  </si>
+  <si>
+    <t>2018/12/07（十六）</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：64x0 </t>
   </si>
   <si>
     <t>G04项目组-jad会议-1-3</t>
@@ -127,64 +205,13 @@
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1qIZQtB63cEy4r7AF-4yBMQ </t>
   </si>
   <si>
-    <t>2018/11/1（十）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提取码：ejzg </t>
+    <t>2018/12/10（十七）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1GJ2Aiwq13324HGlaqwj7Yw </t>
   </si>
   <si>
     <t xml:space="preserve">提取码：6z8q </t>
-  </si>
-  <si>
-    <t>2018/11/8（十一）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/10dUK0OVFjWynDlG4dT4tGw </t>
-  </si>
-  <si>
-    <t>2018/11/14（十二）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提取码：ce4k </t>
-  </si>
-  <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/1TzTLvXLfpDFciFOpenkwcg </t>
-  </si>
-  <si>
-    <t>2018/11/21（十三）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提取码：j2nq </t>
-  </si>
-  <si>
-    <t>2018/11/29（十四）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/1YiT9cZhAdyQCLaCjLMM0lg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">提取码：rp00 </t>
-  </si>
-  <si>
-    <t>2018/12/05（十五）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/1G37_STJZ2L5KIXOdjK3qbQ </t>
-  </si>
-  <si>
-    <t>2018/12/07（十六）</t>
-  </si>
-  <si>
-    <t>紧急</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提取码：64x0 </t>
-  </si>
-  <si>
-    <t>2018/12/10（十七）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/1GJ2Aiwq13324HGlaqwj7Yw </t>
   </si>
   <si>
     <t>2018/12/13（十八）</t>
@@ -225,9 +252,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -239,6 +266,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -254,6 +364,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -264,9 +396,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,111 +409,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,19 +419,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,13 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,145 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,11 +613,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,81 +710,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,131 +728,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1166,7 +1193,7 @@
     <col min="4" max="4" width="19.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,11 +1209,11 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1200,27 +1227,24 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>43369</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1228,38 +1252,35 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,11 +1291,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1282,112 +1303,118 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="3:12">
-      <c r="C11" t="s">
+      <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L13" t="s">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
+      <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="M14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L14" t="s">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="H16" t="s">
         <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -1395,7 +1422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1405,112 +1432,143 @@
       <c r="C18" t="s">
         <v>46</v>
       </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="M22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="8:13">
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="M25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>会议日期</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t xml:space="preserve">提取码：m5p5 </t>
+  </si>
+  <si>
+    <t>2019/1/7（二十三）</t>
+  </si>
+  <si>
+    <t>2019/1/8（二十三）</t>
+  </si>
+  <si>
+    <t>组内自查</t>
   </si>
 </sst>
 </file>
@@ -253,9 +262,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -268,13 +277,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +290,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,20 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -335,9 +352,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,51 +405,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -402,11 +412,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -419,6 +428,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,49 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,121 +584,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,29 +639,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +676,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -687,17 +702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,131 +737,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1571,6 +1580,25 @@
         <v>76</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>会议日期</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>2019/1/7（二十三）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1crgVMyHcPJG19NLedyOasA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：j9qz </t>
   </si>
   <si>
     <t>2019/1/8（二十三）</t>
@@ -262,9 +268,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -276,7 +282,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,31 +349,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,9 +379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,9 +396,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,74 +424,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -428,55 +434,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,127 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,21 +625,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,6 +652,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -676,6 +682,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -683,21 +704,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,131 +743,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,7 +1198,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1580,23 +1586,31 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12795"/>
+    <workbookView windowWidth="28065" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>会议日期</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t xml:space="preserve">提取码：j9qz </t>
+  </si>
+  <si>
+    <t>2019/1/7（二十三）-CCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1n8t7NCTnx-JiszI1Yxf4Ng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：dbki </t>
   </si>
 </sst>
 </file>
@@ -282,10 +291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -298,6 +307,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,10 +349,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,8 +380,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,14 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -356,38 +404,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,22 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -424,19 +442,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -449,79 +458,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,103 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,17 +649,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,17 +670,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +706,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -716,40 +749,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,128 +770,128 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1659,6 +1668,22 @@
         <v>86</v>
       </c>
     </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28065" windowHeight="11040"/>
+    <workbookView windowWidth="28785" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>会议日期</t>
   </si>
@@ -250,22 +250,19 @@
     <t>提取码：qm7k</t>
   </si>
   <si>
-    <t>2019/1/2（二十一）</t>
+    <t>2019/1/2（二十一）JAD会议准备</t>
   </si>
   <si>
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1FuHF1u2RZ5b8vs7xkGTAMQ </t>
   </si>
   <si>
-    <t>JAD会议准备</t>
-  </si>
-  <si>
-    <t>2019/1/3（二十二）</t>
+    <t>2019/1/3（二十二）JAD总结</t>
   </si>
   <si>
     <t xml:space="preserve">提取码：m5p5 </t>
   </si>
   <si>
-    <t>2019/1/7（二十三）</t>
+    <t>2019/1/7（二十三）srs评审准备</t>
   </si>
   <si>
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1crgVMyHcPJG19NLedyOasA </t>
@@ -277,7 +274,7 @@
     <t xml:space="preserve">提取码：j9qz </t>
   </si>
   <si>
-    <t>2019/1/7（二十三）-CCB</t>
+    <t>2019/1/9（二十四）-CCB</t>
   </si>
   <si>
     <t xml:space="preserve">链接：https://pan.baidu.com/s/1n8t7NCTnx-JiszI1Yxf4Ng </t>
@@ -291,10 +288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -306,7 +303,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,8 +399,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,107 +440,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,13 +455,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +557,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,157 +623,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,8 +652,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,6 +667,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -677,30 +689,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,17 +708,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,131 +764,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1222,7 +1219,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1621,7 +1618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -1631,57 +1628,54 @@
       <c r="C31" t="s">
         <v>79</v>
       </c>
-      <c r="G31" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
         <v>81</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13065"/>
+    <workbookView windowWidth="19995" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>会议日期</t>
   </si>
@@ -55,43 +55,40 @@
     <t xml:space="preserve">提取码：7vdi </t>
   </si>
   <si>
-    <t>项目访谈</t>
+    <t>G04项目组-杨老师（以教师用户身份获取需求)-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1sabC4aweQw1IxEOeGGtG9g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：naf7 </t>
+  </si>
+  <si>
+    <t>2018/9/27（二）</t>
+  </si>
+  <si>
+    <t>G04项目组-yangc愿景-11-13</t>
+  </si>
+  <si>
+    <t>2018/9/29（三）</t>
+  </si>
+  <si>
+    <t>G04项目组-杨枨老师业务需求确认-12-6</t>
+  </si>
+  <si>
+    <t>2018/10/5（四）</t>
+  </si>
+  <si>
+    <t>G04项目组-杨枨老师上课例子-12-12</t>
+  </si>
+  <si>
+    <t>2018/10/10（五）</t>
+  </si>
+  <si>
+    <t>2018/10/11（六）</t>
   </si>
   <si>
     <t>提取码：c7v8</t>
-  </si>
-  <si>
-    <t>G04项目组-杨老师（以教师用户身份获取需求)-10-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">链接：https://pan.baidu.com/s/1sabC4aweQw1IxEOeGGtG9g </t>
-  </si>
-  <si>
-    <t xml:space="preserve">提取码：naf7 </t>
-  </si>
-  <si>
-    <t>2018/9/27（二）</t>
-  </si>
-  <si>
-    <t>G04项目组-yangc愿景-11-13</t>
-  </si>
-  <si>
-    <t>2018/9/29（三）</t>
-  </si>
-  <si>
-    <t>G04项目组-杨枨老师业务需求确认-12-6</t>
-  </si>
-  <si>
-    <t>2018/10/5（四）</t>
-  </si>
-  <si>
-    <t>G04项目组-杨枨老师上课例子-12-12</t>
-  </si>
-  <si>
-    <t>2018/10/10（五）</t>
-  </si>
-  <si>
-    <t>2018/10/11（六）</t>
   </si>
   <si>
     <t>G04项目组-学生用例确认-12-09</t>
@@ -288,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -303,7 +300,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +331,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,6 +366,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -332,23 +381,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,24 +429,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,60 +442,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -455,187 +452,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,11 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +666,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,35 +702,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,17 +724,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,131 +761,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1274,28 +1271,22 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="1">
-        <v>43369</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3"/>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="S3" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1303,7 +1294,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
         <v>5</v>
@@ -1314,13 +1305,13 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -1331,13 +1322,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
         <v>5</v>
@@ -1348,7 +1339,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1360,52 +1351,52 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>26</v>
       </c>
-      <c r="M8" t="s">
+      <c r="S8" t="s">
         <v>27</v>
-      </c>
-      <c r="S8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:13">
       <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
         <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
       </c>
       <c r="M11" t="s">
         <v>5</v>
@@ -1413,40 +1404,40 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="H12" t="s">
         <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
         <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="H14" t="s">
         <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>6</v>
@@ -1454,27 +1445,27 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="H16" t="s">
         <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
       </c>
       <c r="M16" t="s">
         <v>5</v>
@@ -1482,24 +1473,24 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
         <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="H18" t="s">
         <v>51</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
       </c>
       <c r="M18" t="s">
         <v>6</v>
@@ -1507,175 +1498,175 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="H20" t="s">
         <v>54</v>
       </c>
-      <c r="H20" t="s">
+      <c r="M20" t="s">
         <v>55</v>
-      </c>
-      <c r="M20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:13">
       <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
         <v>57</v>
-      </c>
-      <c r="M21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" t="s">
         <v>63</v>
       </c>
-      <c r="H23" t="s">
+      <c r="M23" t="s">
         <v>64</v>
-      </c>
-      <c r="M23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="13:13">
       <c r="M24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
         <v>67</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="H26" t="s">
         <v>70</v>
       </c>
-      <c r="H26" t="s">
+      <c r="M26" t="s">
         <v>71</v>
-      </c>
-      <c r="M26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="13:13">
       <c r="M27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
         <v>76</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>78</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
         <v>80</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
         <v>82</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>84</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
         <v>86</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
+++ b/G04项目组/非受控文档/06-公用/PRD2018-G04-会议记录录音链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19995" windowHeight="12450"/>
+    <workbookView windowWidth="28785" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>会议日期</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t xml:space="preserve">提取码：dbki </t>
+  </si>
+  <si>
+    <t>2019/1/14总评审自查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">链接：https://pan.baidu.com/s/1FX2kla_v6EhP3Ac6CB359g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">提取码：zgky </t>
   </si>
 </sst>
 </file>
@@ -286,9 +295,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -300,7 +309,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,135 +451,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -452,43 +461,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +629,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,132 +642,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,16 +656,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +675,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,21 +699,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,11 +738,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,29 +770,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,100 +801,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1273,7 +1282,6 @@
     <row r="3" spans="1:19">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3"/>
       <c r="H3" t="s">
         <v>13</v>
       </c>
@@ -1667,6 +1675,22 @@
     <row r="38" spans="3:3">
       <c r="C38" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
